--- a/Policy.xlsx
+++ b/Policy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="769">
   <si>
     <t>Prompt</t>
   </si>
@@ -569,317 +569,262 @@
     <t>My home land line is involved during my work at GNEI, leading to a line rental bill of £30 and extra international business calls costs £20. How much can I get reimbursed for with proper receipts?</t>
   </si>
   <si>
-    <t>[30, 29, 1, 24, 16]</t>
+    <t>[30, 29, 1, 24, 44]</t>
   </si>
   <si>
     <t>It has been agreed that I should receive a GNEI mobile phone, yet due to specific app requirement I can only buy one instead of obtaining via ISD’s Managed Mobile service. The phone costs £800. How much can I get reimbursed?</t>
   </si>
   <si>
-    <t>[29, 45, 1, 0, 9]</t>
+    <t>[29, 45, 0]</t>
   </si>
   <si>
     <t>It has been agreed that I should receive a GNEI mobile phone, yet due to specific app requirement I can only buy one instead of obtaining via ISD’s Managed Mobile service. The phone costs £800, and has been pre-approved by relevant authority. How much can I get reimbursed with an electronic receipt?</t>
   </si>
   <si>
-    <t>[29, 0, 45, 1, 9]</t>
+    <t>[29, 0, 45, 44]</t>
   </si>
   <si>
     <t>I subscribed an academic journal since it's mandatory and not included in general GNEI subscription, and this took £800 per year.</t>
   </si>
   <si>
-    <t>[35, 0, 26, 27, 33]</t>
+    <t>[37, 0, 45, 44]</t>
   </si>
   <si>
     <t>I subscribed an academic journal since it's essential for my teaching duty performance, and not included in general GNEI subscription, and this took £800 per year. Can I claim for that with an electronic receipt?</t>
   </si>
   <si>
-    <t>[0, 1, 27, 22, 26]</t>
-  </si>
-  <si>
     <t>I subscribed two academic journal (specified by A and B) since A's essential for my teaching duty performance, and B's needed for catching up with field state-of-the-art. Each of these took £800 per year. Can I claim for that with electronic receipts?</t>
   </si>
   <si>
-    <t>[44, 0, 1, 27, 7]</t>
-  </si>
-  <si>
     <t>I am a GNEI employee planning to attend an upcoming international conference on environmental sustainability, which is closely related to my current project at GNEI. The conference is known for its high registration fees, but my professional association offers a significant discount to its members. By being a member of this professional body, I can save GNEI a considerable amount of the conference fee, reducing the cost from £800 to £500. How much can I reimburse in this case?</t>
   </si>
   <si>
-    <t>[37, 22, 1, 0, 18]</t>
+    <t xml:space="preserve">[37, 0, 45, 44]
+</t>
   </si>
   <si>
     <t>I directly purchased 2 books related to my research project, costing £30 and £36 each, as they're not available via a GNEI PO. Can I claim for them with digital receipts?</t>
   </si>
   <si>
-    <t>[38, 44, 40, 45, 0]</t>
-  </si>
-  <si>
     <t>I purchased 2 books related to my research project, one via a GNEI PO and paid directly by GNEI on invoice via Accounts Payable, and one directly as GNEI method's not available in this case, costing me £30 and £36, resepctively. Can I claim for them with digital receipts?</t>
   </si>
   <si>
-    <t>[38, 40, 45, 44, 0]</t>
+    <t>[38, 45, 44, 0]</t>
   </si>
   <si>
     <t>With prior approval from the relevant Faculty Director of Operations, the cost of obtaining a 2-year-long visa for my working for GNEI in the UK consists of an application fee of £600 and a IHS charge of £800 per year. How much can I claim for?</t>
   </si>
   <si>
-    <t>[39, 19, 44, 35, 21]</t>
+    <t>[39, 44, 45, 0]</t>
   </si>
   <si>
     <t>While the cost of obtaining a 2-year-long visa for my working for GNEI in the UK consists of an application fee of £600 and a IHS charge of £800 per year, the relevant Faculty Director of Operations approves to claim 80% of the total expense in my case. How much can I clai</t>
   </si>
   <si>
-    <t>[39, 44, 21, 19, 35]</t>
-  </si>
-  <si>
     <t>Since my work visa has been approved and reimbursed in the past, I directly submitted a claim for my visa renewal cost of £500. How much can I get reimbursed?</t>
   </si>
   <si>
-    <t>[39, 0, 19, 1, 44]</t>
-  </si>
-  <si>
     <t>I was assigned to lead a fieldwork project in a rugged, outdoor location as part of a GNEI environmental research initiative. Recognizing the need for durable, weather-resistant clothing suitable for the terrain and climate, I purchased a set of high-quality outdoor gear, including a waterproof jacket, trousers, and boots, costing a total of £300 instead of obtaining one via GNEI. Believing this specialist clothing was essential for the project's success and my safety, I submitted an expense claim for the full amount after making the purchase.</t>
   </si>
   <si>
-    <t>[40, 0, 44, 43, 28]</t>
+    <t>[40, 0, 44]</t>
   </si>
   <si>
     <t>I decided to upgrade my personal mobile phone to a newer model because I believed it would improve my productivity and communication for GNEI work. The new phone cost £600, and I purchased it outright without going through GNEI's Managed Mobile service. After purchasing the phone, I submitted an expense claim for the full cost, assuming that the investment in better technology would be seen as beneficial for my work with GNEI.</t>
   </si>
   <si>
-    <t>[29, 45, 0, 1, 44]</t>
+    <t>[29, 45, 0, 44]</t>
   </si>
   <si>
     <t>I spent £1000 by giving out cash to the individuals who were invited to my research survey, a form stating that they have received the cash has been signed and attached as a receipt. How much can I claim for?</t>
   </si>
   <si>
-    <t>[41, 0, 43, 44, 8]</t>
+    <t>[41, 0, 44]</t>
   </si>
   <si>
     <t>I've estimiated that my research survey may involve with 50 people, each would be paid £20 in cash. This has been pre-approved. The fact, however, 20 more people ended up taking part in. All candidates has signed the form. How much is reimbursable?</t>
   </si>
   <si>
-    <t>[41, 43, 0, 1, 22]</t>
-  </si>
-  <si>
     <t>Can I claim for a foreign advance of £400 since other means of paying for my trip attending an international conference are not available?</t>
   </si>
   <si>
-    <t>[42, 18, 22, 35, 1]</t>
+    <t>[42, 0, 44]</t>
   </si>
   <si>
     <t>Can I claim for a foreign advance of £400 while there are some other means of paying for my trip attending an international conference?</t>
   </si>
   <si>
-    <t>[42, 18, 19, 22, 1]</t>
-  </si>
-  <si>
     <t>£60 cash per subject has been given out for the duration of my experiment, which involves with 10 subjects. How much may I apply through my departments for a Research Advance this?</t>
   </si>
   <si>
-    <t>[43, 20, 41, 1, 0]</t>
+    <t>[43, 41, 44, 0]</t>
   </si>
   <si>
     <t>£60 cash per subject has been given out for the duration of my experiment, including £5 fee of travelling. The project involves with 10 subjects. How much may I apply through my departments for a Research Advance this?</t>
   </si>
   <si>
-    <t>[43, 20, 1, 0, 41]</t>
-  </si>
-  <si>
     <t>£90 cash per subject has been given out for the duration of my experiment, since a GNEI general expense claim form is not available due to bank holidays. How much may I apply through my departments for a Research Advance this?</t>
   </si>
   <si>
-    <t>[43, 41, 44, 0, 42]</t>
-  </si>
-  <si>
     <t>I claimed for a bill of short-term WiFi service which added up to £60, yet due to bank holidays I cannot have the approval while the WiFi provider fail to give a detailed receipt. How much may I get reimbursed in this case?</t>
   </si>
   <si>
-    <t>[26, 22, 44, 0, 30]</t>
+    <t>[44, 0, 30]</t>
   </si>
   <si>
     <t>I've got a fine bill containing £50 of fine charge and £20 of administration fee, due to my parking overtime while working at GNEI campus. Can I reimburse that?</t>
   </si>
   <si>
-    <t>[16, 15, 1, 0, 24]</t>
+    <t>[45, 0]</t>
   </si>
   <si>
     <t>I spent budget for a few experimental equipments and a suit hire for activities, both costed me £20. How much can I get reimbursed?</t>
   </si>
   <si>
-    <t>[17, 1, 45, 33, 27]</t>
+    <t>[0, 45]</t>
   </si>
   <si>
     <t>I spent £20 on choosing a gift for my international research partner during a conference. Can I reimburse that along with other decent expenses?</t>
   </si>
   <si>
-    <t>[1, 22, 0, 20, 47]</t>
+    <t>[0, 45, 44]</t>
   </si>
   <si>
     <t>I've submitted a claim regarding of my personal travel insurance and a vehicle insurance, as I believe they'd be essential for my work at GNEI. The bills are £1000 and £600 respectively. How much can I get reimbursed?</t>
   </si>
   <si>
-    <t>[4, 11, 45, 0, 1]</t>
+    <t>[4, 45, 0]</t>
   </si>
   <si>
     <t>I'm claiming for a few personal expenditure which added up to £300, yet due to they're generated during a long period of time I cannot tell if they occurred during my working time at GNEI or not. How much can I get reimbursed?</t>
   </si>
   <si>
-    <t>[0, 11, 20, 16, 19]</t>
-  </si>
-  <si>
     <t>I'm claiming for a filght ticket fee which took up to £300 and a VAT of £75, as it's used to obtain my attendance of a conference on time. How much can I get reimbursed with a receipt stating everything needed?</t>
   </si>
   <si>
-    <t>[26, 0, 7, 46, 1]</t>
+    <t>[44, 0, 7, 46]</t>
   </si>
   <si>
     <t>I'm claiming for subsistence expenses of £1200 via a visiting Research Fellow form, yet this's already the third year of my visiting at GNEI. Can I still get reimbursed?</t>
   </si>
   <si>
-    <t>[47, 0, 41, 28, 45]</t>
+    <t>[47, 0]</t>
   </si>
   <si>
     <t>It took me £900 for hiring a childcare person during my attendance to a foreigh conference. This has been pre-approved by head of GNEIExpenses. Can I get reimbrused?</t>
   </si>
   <si>
-    <t>[48, 0, 22, 35, 15]</t>
+    <t>[48, 0, 44]</t>
   </si>
   <si>
     <t>It took me £900 for hiring a childcare person during my attendance to a foreigh conference. This has been pre-approved by head of GNEIExpenses. However, the receipt is not available as required by the childcare person. Can I get reimbrused?</t>
   </si>
   <si>
-    <t>[48, 0, 22, 25, 35]</t>
-  </si>
-  <si>
     <t>I have been working from home due to the ongoing flexibility provided by GNEI, with my usual office located in London. A new project required me to attend several meetings at a coworking space that is actually closer to my home than the GNEI office. Given the proximity to my home and the convenience, I decided to drive there for a week, and the total mileage for the week amounted to 100 miles (no other mileage covered in the tax year), considering the round trips. How much can I reimburse?</t>
   </si>
   <si>
-    <t>[0, 28, 44, 43, 1]</t>
+    <t>[10, 0, 44,1]</t>
   </si>
   <si>
     <t>A new project required me to attend several meetings at a coworking space, to where I decided to drive for a week, and the total mileage for the week amounted to 100 miles (no other mileage covered in the tax year), considering the round trips. The total cost turned out to be £30. How much can I reimburse?</t>
   </si>
   <si>
-    <t>[0, 44, 43, 22, 46]</t>
-  </si>
-  <si>
     <t>A new project required me to attend several meetings at a coworking space, to where I decided to drive for a week, and the total mileage for the week amounted to 100 miles (I've claimed for more than 11000 miles in the tax year), considering the round trips. The total cost turned out to be £30. How much can I reimburse?</t>
   </si>
   <si>
-    <t>[43, 0, 44, 28, 22]</t>
-  </si>
-  <si>
     <t>A new project required me to attend several meetings at a coworking space, and the total mileage for the week amounted to 100 miles by car and 20 miles by motorcycles (no mileage covered in the tax year yet), considering the round trips. The total cost turned out to be £30. How much can I reimburse?</t>
   </si>
   <si>
-    <t>[44, 0, 12, 43, 46]</t>
+    <t>[10, 0, 44, 1]</t>
   </si>
   <si>
     <t>I took a taxi to a conference which is located closer to my home than GNEI campus is. The bill turns out to be £30. Can that be reimbursed?</t>
   </si>
   <si>
-    <t>[22, 0, 1, 44, 47]</t>
+    <t>[9, 0, 1, 44]</t>
   </si>
   <si>
     <t>I took a taxi to a conference which is located exactly at GNEI campus. The bill turns out to be £30. Can that be reimbursed?</t>
   </si>
   <si>
-    <t>[22, 1, 0, 27, 16]</t>
-  </si>
-  <si>
     <t>A colleague of mine drove me to a GNEI-held conference, which is 25 miles away from London. Can I claim for half of the mileage to be covered?</t>
   </si>
   <si>
-    <t>[0, 22, 1, 44, 26]</t>
+    <t>[12, 10, 1, 44, 0]</t>
   </si>
   <si>
     <t>A colleague of mine drove me to a GNEI-held conference, which is 25 miles away from London, and on the way back I took over and drove him for the whole distance. Can I claim for half of the mileage to be covered?</t>
   </si>
   <si>
-    <t>[7, 0, 44, 1, 22]</t>
-  </si>
-  <si>
     <t>I am planning a business trip to attend a conference in New York. I am a member of an airline's frequent flyer program, which offers the chance to earn miles for flights booked, potentially leading to future travel benefits such as free flights or upgrades. I choose to book with my preferred airline to accrue personal frequent flyer miles, believing the benefits outweigh the cost difference. The chosen flight costs £700, whereas the alternative, and more economical option, was available for £500. Both filghts are considered in economy. Can I get the bill ticket reimbursed?</t>
   </si>
   <si>
-    <t>[13, 1, 22, 18, 0]</t>
+    <t>[13, 1, 44, 0]</t>
   </si>
   <si>
     <t>I am planning a business trip to attend a conference in New York. I am a member of an airline's frequent flyer program, which offers the chance to earn miles for flights booked, potentially leading to future travel benefits such as free flights or upgrades. I choose to book with my preferred airline to accrue personal frequent flyer miles, as using my personal credits earned by my previous filghts would decrease the ticket price. The chosen flight used to cost £700 and is £500 when purchased, whereas the cheapest alternative was available for £600. Both filghts are considered in economy. Can I get the bill ticket reimbursed?</t>
   </si>
   <si>
-    <t>[13, 22, 1, 18, 8]</t>
-  </si>
-  <si>
     <t>A parking bill of £16 occurred at my hotel during my attendance to a GNEI activity. Can that be reimbursed?</t>
   </si>
   <si>
-    <t>[16, 22, 0, 1, 27]</t>
+    <t>[16, 0, 1, 44]</t>
   </si>
   <si>
     <t>A parking bill of £16 occurred during my attendance to a GNEI-held entertainment activity. Can that be reimbursed?</t>
   </si>
   <si>
-    <t>[16, 22, 0, 11, 32]</t>
-  </si>
-  <si>
     <t>A parking bill of £16 occurred during my attendance to a GNEI-held entertainment activity, as it'd be important for refreshing during a week-long conference. Can that be reimbursed?</t>
   </si>
   <si>
-    <t>[16, 11, 22, 32, 1]</t>
-  </si>
-  <si>
     <t>A parking bill which added up to £30 + £6(VAT) occurred at my hotel during my attendance to a GNEI activity. Can that be reimbursed?</t>
   </si>
   <si>
-    <t>[16, 0, 22, 46, 26]</t>
+    <t>[16, 0, 1, 46, 44]</t>
   </si>
   <si>
     <t>A parking bill which added up to £30 + £6(VAT) occurred at my hotel during my attendance to a GNEI activity, and I don't have a VAT receipt. Can that be reimbursed?</t>
   </si>
   <si>
-    <t>[16, 46, 0, 26, 41]</t>
-  </si>
-  <si>
     <t>I drove my bike to Oxford for a business trip along with 1 other GNEI colleagues. The total distance covered was 85 miles. How much can I claim in expenses?</t>
   </si>
   <si>
-    <t>[1, 18, 19, 0, 44]</t>
+    <t xml:space="preserve">[1, 10, 0, 44]
+</t>
   </si>
   <si>
     <t>While driving my own car on a business trip, I accidentally hit the sidewalk and damaged the side of the vehicles. The total cost of the repairs was £120. Can this be expensed?</t>
   </si>
   <si>
-    <t>[18, 1, 44, 19, 46]</t>
+    <t>[11, 1, 44, 45]</t>
   </si>
   <si>
     <t xml:space="preserve">I am an employee of GNEI College London, and I have to go to places far from home every day to work at the school. I took the subway to work and paid with my credit card. Within a month, I recharged £ 200 into my credit card and spent a total of £ 121 on transportation. How much can I claim in expenses? 
 </t>
   </si>
   <si>
-    <t>[0, 44, 46, 3, 22]</t>
+    <t>[7, 0, 44]</t>
   </si>
   <si>
     <t xml:space="preserve">I went on a business trip to New York and after landing at the airport, due to having a lot of luggage, I chose to take a taxi to the hotel, which cost me £ 15. How much can I claim in expenses?
 </t>
   </si>
   <si>
-    <t>[9, 0, 44, 19, 18]</t>
+    <t>[9, 0, 44, 8]</t>
   </si>
   <si>
     <t xml:space="preserve">I am an staff of GNEI in Edinburgh and worked in London for a month. During this period, due to the need for public transportation, I applied for an Oyster card that can only be used in London. I recharged a total of 160 yuan into it, but before leaving, I spent a total of 145 pounds on my card. The rest was useless as I was not in London. How much can I claim in expenses?
 </t>
   </si>
   <si>
-    <t>[0, 5, 21, 7, 22]</t>
+    <t>[0, 5, 7, 44]</t>
   </si>
   <si>
     <t xml:space="preserve">I work in my studio very late, around 11:30 pm. Due to being too late, I took a taxi home and spent £ 20. How much can I claim in expenses?
 </t>
   </si>
   <si>
-    <t>[9, 0, 44, 1, 28]</t>
+    <t>[9, 0, 44, 1]</t>
   </si>
   <si>
     <t xml:space="preserve">I am on a business trip from London to Liverpool. Because first-class seats are heavily discounted and only 2 pounds more expensive than standard seats, I bought a first-class seat at a cost of 31 pounds. How much can I claim in expenses?
@@ -3893,19 +3838,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4010,10 +3949,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -4028,31 +3967,31 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -4064,7 +4003,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4380,252 +4319,252 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A1" s="20" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A2" s="20" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A3" s="20" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A4" s="20" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A5" s="20" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A6" s="20" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="150" customFormat="1" s="7">
       <c r="A7" s="20" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="68.25" customFormat="1" s="7">
       <c r="A8" s="20" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A9" s="20" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A10" s="20" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A11" s="20" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="94.5" customFormat="1" s="7">
       <c r="A12" s="20" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A13" s="20" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A14" s="20" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A15" s="20" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39" customFormat="1" s="7">
       <c r="A16" s="20" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A17" s="20" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A18" s="20" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A19" s="20" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A20" s="20" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A21" s="20" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A22" s="20" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A23" s="20" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A24" s="20" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A25" s="20" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A26" s="20" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A27" s="20" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A28" s="20" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A29" s="20" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A30" s="20" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A31" s="20" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A32" s="20" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A33" s="20" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A34" s="20" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A35" s="20" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A36" s="20" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A37" s="20" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A38" s="20" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A39" s="20" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A40" s="20" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="67.5" customFormat="1" s="7">
       <c r="A41" s="20" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A42" s="20" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A43" s="20" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A44" s="20" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A45" s="20" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A46" s="20" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A47" s="20" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A48" s="20" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A49" s="20" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A50" s="20" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -4658,31 +4597,31 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="40.5" customFormat="1" s="7">
       <c r="A1" s="8" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="J1" s="10"/>
     </row>
@@ -4694,25 +4633,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="J2" s="10"/>
     </row>
@@ -4724,25 +4663,25 @@
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="J3" s="10"/>
     </row>
@@ -4754,23 +4693,23 @@
         <v>6</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="12" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="J4" s="10"/>
     </row>
@@ -4782,23 +4721,23 @@
         <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="12" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="J5" s="10"/>
     </row>
@@ -4810,23 +4749,23 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="12" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="J6" s="10"/>
     </row>
@@ -4838,25 +4777,25 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F7" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>370</v>
-      </c>
       <c r="H7" s="12" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="J7" s="10"/>
     </row>
@@ -4868,25 +4807,25 @@
         <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="H8" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>375</v>
-      </c>
       <c r="I8" s="12" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="J8" s="10"/>
     </row>
@@ -4898,23 +4837,23 @@
         <v>15</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="12" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="J9" s="10"/>
     </row>
@@ -4926,23 +4865,23 @@
         <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="12" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="J10" s="10"/>
     </row>
@@ -4954,23 +4893,23 @@
         <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="12" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="J11" s="10"/>
     </row>
@@ -4982,21 +4921,21 @@
         <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="12" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="J12" s="10"/>
     </row>
@@ -5008,23 +4947,23 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="12" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="J13" s="10"/>
     </row>
@@ -5036,21 +4975,21 @@
         <v>25</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="12" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="J14" s="10"/>
     </row>
@@ -5062,23 +5001,23 @@
         <v>27</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="12" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="J15" s="10"/>
     </row>
@@ -5090,23 +5029,23 @@
         <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="12" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="J16" s="10"/>
     </row>
@@ -5118,23 +5057,23 @@
         <v>31</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="12" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="J17" s="10"/>
     </row>
@@ -5146,23 +5085,23 @@
         <v>32</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="12" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="J18" s="10"/>
     </row>
@@ -5174,23 +5113,23 @@
         <v>34</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="12" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="J19" s="10"/>
     </row>
@@ -5202,23 +5141,23 @@
         <v>35</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="12" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="J20" s="10"/>
     </row>
@@ -5230,23 +5169,23 @@
         <v>37</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="12" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="J21" s="10"/>
     </row>
@@ -5258,23 +5197,23 @@
         <v>39</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="12" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="J22" s="10"/>
     </row>
@@ -5286,23 +5225,23 @@
         <v>41</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="12" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="J23" s="10"/>
     </row>
@@ -5314,23 +5253,23 @@
         <v>43</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="12" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="J24" s="10"/>
     </row>
@@ -5342,23 +5281,23 @@
         <v>44</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="12" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="J25" s="10"/>
     </row>
@@ -5370,23 +5309,23 @@
         <v>45</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="12" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="J26" s="10"/>
     </row>
@@ -5398,23 +5337,23 @@
         <v>46</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="12" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="J27" s="10"/>
     </row>
@@ -5426,23 +5365,23 @@
         <v>48</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="12" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="J28" s="10"/>
     </row>
@@ -5454,23 +5393,23 @@
         <v>49</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="12" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="J29" s="10"/>
     </row>
@@ -5482,23 +5421,23 @@
         <v>50</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="12" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="J30" s="10"/>
     </row>
@@ -5510,23 +5449,23 @@
         <v>52</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="12" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="J31" s="10"/>
     </row>
@@ -5538,23 +5477,23 @@
         <v>54</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="12" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="J32" s="10"/>
     </row>
@@ -5566,23 +5505,23 @@
         <v>55</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="12" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="J33" s="10"/>
     </row>
@@ -5594,23 +5533,23 @@
         <v>56</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="12" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="J34" s="10"/>
     </row>
@@ -5622,23 +5561,23 @@
         <v>57</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>421</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>440</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="15" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="J35" s="10"/>
     </row>
@@ -5650,23 +5589,23 @@
         <v>58</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="12" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="J36" s="10"/>
     </row>
@@ -5678,23 +5617,23 @@
         <v>59</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="15" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="J37" s="10"/>
     </row>
@@ -5706,23 +5645,23 @@
         <v>60</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="12" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="J38" s="10"/>
     </row>
@@ -5734,23 +5673,23 @@
         <v>62</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="12" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="J39" s="10"/>
     </row>
@@ -5762,23 +5701,23 @@
         <v>64</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="12" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="J40" s="10"/>
     </row>
@@ -5790,23 +5729,23 @@
         <v>65</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="15" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="J41" s="10"/>
     </row>
@@ -5818,23 +5757,23 @@
         <v>66</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="12" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="J42" s="10"/>
     </row>
@@ -5846,23 +5785,23 @@
         <v>68</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="12" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="J43" s="10"/>
     </row>
@@ -5874,23 +5813,23 @@
         <v>69</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="12" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="J44" s="10"/>
     </row>
@@ -5902,23 +5841,23 @@
         <v>70</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="12" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="J45" s="10"/>
     </row>
@@ -5930,23 +5869,23 @@
         <v>71</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="12" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="J46" s="10"/>
     </row>
@@ -5958,23 +5897,23 @@
         <v>73</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="12" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="J47" s="10"/>
     </row>
@@ -5986,23 +5925,23 @@
         <v>75</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="12" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="J48" s="10"/>
     </row>
@@ -6014,23 +5953,23 @@
         <v>77</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="12" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="J49" s="10"/>
     </row>
@@ -6042,23 +5981,23 @@
         <v>78</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="12" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="J50" s="10"/>
     </row>
@@ -6070,21 +6009,21 @@
         <v>79</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="12" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="J51" s="10"/>
     </row>
@@ -6096,22 +6035,22 @@
         <v>81</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -6124,20 +6063,20 @@
         <v>83</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="12" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -6150,20 +6089,20 @@
         <v>85</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="12" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -6176,20 +6115,20 @@
         <v>87</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="12" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -6202,20 +6141,20 @@
         <v>89</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="12" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -6228,23 +6167,23 @@
         <v>91</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="12" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="J57" s="10"/>
     </row>
@@ -6256,23 +6195,23 @@
         <v>92</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="12" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J58" s="10"/>
     </row>
@@ -6284,20 +6223,20 @@
         <v>93</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="12" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -6310,23 +6249,23 @@
         <v>95</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="12" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="J60" s="10"/>
     </row>
@@ -6338,23 +6277,23 @@
         <v>96</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="12" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J61" s="10"/>
     </row>
@@ -6366,20 +6305,20 @@
         <v>98</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="12" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
@@ -6392,20 +6331,20 @@
         <v>99</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="12" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -6418,20 +6357,20 @@
         <v>100</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="12" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
@@ -6444,20 +6383,20 @@
         <v>102</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="G65" s="10"/>
       <c r="H65" s="12" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
@@ -6470,20 +6409,20 @@
         <v>103</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="12" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
@@ -6496,20 +6435,20 @@
         <v>105</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="12" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
@@ -6522,23 +6461,23 @@
         <v>107</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="12" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="J68" s="10"/>
     </row>
@@ -6550,20 +6489,20 @@
         <v>109</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="12" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
@@ -6576,20 +6515,20 @@
         <v>110</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="12" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
@@ -6602,23 +6541,23 @@
         <v>112</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="12" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="J71" s="10"/>
     </row>
@@ -6630,20 +6569,20 @@
         <v>113</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="12" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
@@ -6656,20 +6595,20 @@
         <v>114</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="12" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
@@ -6682,20 +6621,20 @@
         <v>116</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="12" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
@@ -6708,20 +6647,20 @@
         <v>117</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="12" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
@@ -6734,20 +6673,20 @@
         <v>119</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="12" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
@@ -6760,16 +6699,16 @@
         <v>121</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -6784,16 +6723,16 @@
         <v>123</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
@@ -6808,16 +6747,16 @@
         <v>124</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -6832,16 +6771,16 @@
         <v>125</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -6856,16 +6795,16 @@
         <v>126</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
@@ -6880,16 +6819,16 @@
         <v>127</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
@@ -6904,16 +6843,16 @@
         <v>128</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
@@ -6928,16 +6867,16 @@
         <v>129</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
@@ -6952,16 +6891,16 @@
         <v>130</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
@@ -6976,16 +6915,16 @@
         <v>131</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
@@ -7000,16 +6939,16 @@
         <v>132</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
@@ -7024,16 +6963,16 @@
         <v>134</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
@@ -7048,16 +6987,16 @@
         <v>135</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
@@ -7072,16 +7011,16 @@
         <v>137</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
@@ -7096,16 +7035,16 @@
         <v>138</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
@@ -7120,16 +7059,16 @@
         <v>140</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
@@ -7144,16 +7083,16 @@
         <v>141</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
@@ -7168,16 +7107,16 @@
         <v>143</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
@@ -7192,16 +7131,16 @@
         <v>144</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
@@ -7216,16 +7155,16 @@
         <v>146</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -7240,20 +7179,20 @@
         <v>147</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="12" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
@@ -7266,20 +7205,20 @@
         <v>149</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="12" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
@@ -7292,20 +7231,20 @@
         <v>150</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="12" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
@@ -7318,20 +7257,20 @@
         <v>152</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="12" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
@@ -7344,20 +7283,20 @@
         <v>153</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="G101" s="10"/>
       <c r="H101" s="12" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -7370,23 +7309,23 @@
         <v>154</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="12" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="J102" s="10"/>
     </row>
@@ -7398,20 +7337,20 @@
         <v>155</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="G103" s="10"/>
       <c r="H103" s="12" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
@@ -7424,20 +7363,20 @@
         <v>156</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="12" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
@@ -7450,20 +7389,20 @@
         <v>157</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="12" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
@@ -7476,20 +7415,20 @@
         <v>158</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G106" s="10"/>
       <c r="H106" s="12" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
@@ -7502,22 +7441,22 @@
         <v>159</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
@@ -7530,22 +7469,22 @@
         <v>161</v>
       </c>
       <c r="C108" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="H108" s="12" t="s">
         <v>530</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="H108" s="12" t="s">
-        <v>549</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
@@ -7558,22 +7497,22 @@
         <v>162</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
@@ -7586,22 +7525,22 @@
         <v>164</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
@@ -7614,26 +7553,26 @@
         <v>165</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="10" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="7">
@@ -7644,25 +7583,25 @@
         <v>166</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="I112" s="12" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="J112" s="10"/>
     </row>
@@ -7674,20 +7613,20 @@
         <v>168</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="12" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
@@ -7700,20 +7639,20 @@
         <v>169</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="12" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
@@ -7726,20 +7665,20 @@
         <v>171</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="12" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
@@ -7752,22 +7691,22 @@
         <v>172</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
@@ -7780,23 +7719,23 @@
         <v>174</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G117" s="10"/>
       <c r="H117" s="12" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="I117" s="12" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="J117" s="10"/>
     </row>
@@ -7808,20 +7747,20 @@
         <v>176</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="12" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
@@ -7834,23 +7773,23 @@
         <v>178</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="G119" s="10"/>
       <c r="H119" s="12" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="I119" s="12" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="J119" s="10"/>
     </row>
@@ -7862,23 +7801,23 @@
         <v>180</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="G120" s="10"/>
       <c r="H120" s="12" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="I120" s="12" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J120" s="10"/>
     </row>
@@ -7887,26 +7826,26 @@
         <v>120</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G121" s="10"/>
       <c r="H121" s="12" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="J121" s="10"/>
     </row>
@@ -7915,28 +7854,28 @@
         <v>121</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="I122" s="12" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="J122" s="10"/>
     </row>
@@ -7945,26 +7884,26 @@
         <v>122</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G123" s="10"/>
       <c r="H123" s="10" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="I123" s="12" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="J123" s="10"/>
     </row>
@@ -7973,26 +7912,26 @@
         <v>123</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="12" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="I124" s="12" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="J124" s="10"/>
     </row>
@@ -8001,25 +7940,25 @@
         <v>124</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
@@ -8029,26 +7968,26 @@
         <v>125</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="12" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="J126" s="10"/>
     </row>
@@ -8057,23 +7996,23 @@
         <v>126</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="G127" s="10"/>
       <c r="H127" s="12" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
@@ -8083,25 +8022,25 @@
         <v>127</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
@@ -8111,26 +8050,26 @@
         <v>128</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G129" s="10"/>
       <c r="H129" s="12" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="I129" s="12" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="J129" s="10"/>
     </row>
@@ -8139,28 +8078,28 @@
         <v>129</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="I130" s="12" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="J130" s="10"/>
     </row>
@@ -8169,26 +8108,26 @@
         <v>130</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="G131" s="10"/>
       <c r="H131" s="12" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="I131" s="12" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="J131" s="10"/>
     </row>
@@ -8197,23 +8136,23 @@
         <v>131</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="G132" s="10"/>
       <c r="H132" s="12" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
@@ -8223,23 +8162,23 @@
         <v>132</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="12" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
@@ -8249,23 +8188,23 @@
         <v>133</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="G134" s="10"/>
       <c r="H134" s="12" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="I134" s="10"/>
       <c r="J134" s="10"/>
@@ -8275,26 +8214,26 @@
         <v>134</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="G135" s="10"/>
       <c r="H135" s="12" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="I135" s="12" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="J135" s="10"/>
     </row>
@@ -8303,23 +8242,23 @@
         <v>135</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="G136" s="10"/>
       <c r="H136" s="12" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
@@ -8329,26 +8268,26 @@
         <v>136</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G137" s="10"/>
       <c r="H137" s="12" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="J137" s="10"/>
     </row>
@@ -8357,23 +8296,23 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G138" s="10"/>
       <c r="H138" s="12" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
@@ -8383,26 +8322,26 @@
         <v>138</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G139" s="10"/>
       <c r="H139" s="12" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="I139" s="12" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="J139" s="10"/>
     </row>
@@ -8411,26 +8350,26 @@
         <v>139</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G140" s="10"/>
       <c r="H140" s="12" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="I140" s="12" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="J140" s="10"/>
     </row>
@@ -8439,23 +8378,23 @@
         <v>140</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G141" s="10"/>
       <c r="H141" s="12" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
@@ -8465,26 +8404,26 @@
         <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G142" s="10"/>
       <c r="H142" s="12" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="J142" s="10"/>
     </row>
@@ -8493,25 +8432,25 @@
         <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
@@ -8521,28 +8460,28 @@
         <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="J144" s="10"/>
     </row>
@@ -8551,25 +8490,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
@@ -8579,26 +8518,26 @@
         <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G146" s="10"/>
       <c r="H146" s="12" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="J146" s="10"/>
     </row>
@@ -8607,26 +8546,26 @@
         <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="G147" s="10"/>
       <c r="H147" s="12" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="J147" s="10"/>
     </row>
@@ -8635,23 +8574,23 @@
         <v>147</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="G148" s="10"/>
       <c r="H148" s="12" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="I148" s="10"/>
       <c r="J148" s="10"/>
@@ -8661,26 +8600,26 @@
         <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="G149" s="10"/>
       <c r="H149" s="12" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="J149" s="10"/>
     </row>
@@ -8689,23 +8628,23 @@
         <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="G150" s="10"/>
       <c r="H150" s="12" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
@@ -8715,23 +8654,23 @@
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="G151" s="10"/>
       <c r="H151" s="12" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
@@ -8741,26 +8680,26 @@
         <v>151</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G152" s="10"/>
       <c r="H152" s="12" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="J152" s="10"/>
     </row>
@@ -8769,25 +8708,25 @@
         <v>152</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
@@ -8797,26 +8736,26 @@
         <v>153</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="G154" s="10"/>
       <c r="H154" s="12" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="J154" s="10"/>
     </row>
@@ -8825,26 +8764,26 @@
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="G155" s="10"/>
       <c r="H155" s="12" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="J155" s="10"/>
     </row>
@@ -8853,26 +8792,26 @@
         <v>155</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="G156" s="10"/>
       <c r="H156" s="12" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="J156" s="10"/>
     </row>
@@ -8881,23 +8820,23 @@
         <v>156</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="G157" s="10"/>
       <c r="H157" s="12" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
@@ -8907,23 +8846,23 @@
         <v>157</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G158" s="10"/>
       <c r="H158" s="12" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
@@ -8933,26 +8872,26 @@
         <v>158</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G159" s="10"/>
       <c r="H159" s="12" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="J159" s="10"/>
     </row>
@@ -8961,26 +8900,26 @@
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="12" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="J160" s="10"/>
     </row>
@@ -8989,26 +8928,26 @@
         <v>160</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G161" s="10"/>
       <c r="H161" s="12" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="J161" s="10"/>
     </row>
@@ -9017,23 +8956,23 @@
         <v>161</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="G162" s="10"/>
       <c r="H162" s="12" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="I162" s="10"/>
       <c r="J162" s="10"/>
@@ -9043,23 +8982,23 @@
         <v>162</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G163" s="10"/>
       <c r="H163" s="12" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="I163" s="10"/>
       <c r="J163" s="10"/>
@@ -9069,23 +9008,23 @@
         <v>163</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="G164" s="10"/>
       <c r="H164" s="12" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
@@ -9095,23 +9034,23 @@
         <v>164</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C165" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F165" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="F165" s="13" t="s">
-        <v>367</v>
       </c>
       <c r="G165" s="10"/>
       <c r="H165" s="12" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="I165" s="10"/>
       <c r="J165" s="10"/>
@@ -9121,23 +9060,23 @@
         <v>165</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="G166" s="10"/>
       <c r="H166" s="12" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="I166" s="10"/>
       <c r="J166" s="10"/>
@@ -9147,23 +9086,23 @@
         <v>166</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G167" s="10"/>
       <c r="H167" s="12" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="I167" s="10"/>
       <c r="J167" s="10"/>
@@ -9173,23 +9112,23 @@
         <v>167</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="G168" s="10"/>
       <c r="H168" s="12" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="I168" s="10"/>
       <c r="J168" s="10"/>
@@ -9199,23 +9138,23 @@
         <v>168</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="G169" s="10"/>
       <c r="H169" s="12" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="I169" s="10"/>
       <c r="J169" s="10"/>
@@ -9225,23 +9164,23 @@
         <v>169</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="G170" s="10"/>
       <c r="H170" s="12" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="I170" s="10"/>
       <c r="J170" s="10"/>
@@ -9251,23 +9190,23 @@
         <v>170</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F171" s="13" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="G171" s="10"/>
       <c r="H171" s="12" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="I171" s="10"/>
       <c r="J171" s="10"/>
@@ -9277,28 +9216,28 @@
         <v>171</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="H172" s="12" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="J172" s="10"/>
     </row>
@@ -9307,23 +9246,23 @@
         <v>172</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G173" s="10"/>
       <c r="H173" s="12" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="I173" s="10"/>
       <c r="J173" s="10"/>
@@ -9333,23 +9272,23 @@
         <v>173</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="G174" s="10"/>
       <c r="H174" s="12" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="I174" s="10"/>
       <c r="J174" s="10"/>
@@ -9359,23 +9298,23 @@
         <v>174</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="G175" s="10"/>
       <c r="H175" s="12" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="I175" s="10"/>
       <c r="J175" s="10"/>
@@ -9385,26 +9324,26 @@
         <v>175</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="G176" s="10"/>
       <c r="H176" s="12" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="I176" s="12" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="J176" s="10"/>
     </row>
@@ -9413,23 +9352,23 @@
         <v>176</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F177" s="13" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="G177" s="10"/>
       <c r="H177" s="12" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="I177" s="10"/>
       <c r="J177" s="10"/>
@@ -9439,26 +9378,26 @@
         <v>177</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="G178" s="10"/>
       <c r="H178" s="12" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="J178" s="10"/>
     </row>
@@ -9467,26 +9406,26 @@
         <v>178</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="G179" s="10"/>
       <c r="H179" s="12" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="I179" s="12" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="J179" s="10"/>
     </row>
@@ -9495,23 +9434,23 @@
         <v>179</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="G180" s="10"/>
       <c r="H180" s="12" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="I180" s="10"/>
       <c r="J180" s="10"/>
@@ -9521,23 +9460,23 @@
         <v>180</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F181" s="13" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="G181" s="10"/>
       <c r="H181" s="12" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="I181" s="10"/>
       <c r="J181" s="10"/>
@@ -9547,26 +9486,26 @@
         <v>181</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="G182" s="10"/>
       <c r="H182" s="12" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="I182" s="12" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="J182" s="10"/>
     </row>
@@ -9575,26 +9514,26 @@
         <v>182</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="G183" s="10"/>
       <c r="H183" s="12" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="J183" s="10"/>
     </row>
@@ -9603,26 +9542,26 @@
         <v>183</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="G184" s="10"/>
       <c r="H184" s="12" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="I184" s="12" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="J184" s="10"/>
     </row>
@@ -9631,26 +9570,26 @@
         <v>184</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="G185" s="10"/>
       <c r="H185" s="12" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="I185" s="12" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="J185" s="10"/>
     </row>
@@ -9659,25 +9598,25 @@
         <v>185</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="H186" s="12" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="I186" s="10"/>
       <c r="J186" s="10"/>
@@ -9687,23 +9626,23 @@
         <v>186</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="G187" s="10"/>
       <c r="H187" s="12" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="I187" s="10"/>
       <c r="J187" s="10"/>
@@ -9713,23 +9652,23 @@
         <v>187</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="G188" s="10"/>
       <c r="H188" s="12" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
@@ -9739,23 +9678,23 @@
         <v>188</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="G189" s="10"/>
       <c r="H189" s="12" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="I189" s="10"/>
       <c r="J189" s="10"/>
@@ -9765,23 +9704,23 @@
         <v>189</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="G190" s="10"/>
       <c r="H190" s="12" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="I190" s="10"/>
       <c r="J190" s="10"/>
@@ -9791,25 +9730,25 @@
         <v>190</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F191" s="13" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="G191" s="12" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="H191" s="12" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="I191" s="10"/>
       <c r="J191" s="10"/>
@@ -9819,23 +9758,23 @@
         <v>191</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="G192" s="10"/>
       <c r="H192" s="12" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="I192" s="10"/>
       <c r="J192" s="10"/>
@@ -9845,23 +9784,23 @@
         <v>192</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="G193" s="10"/>
       <c r="H193" s="12" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
@@ -9871,26 +9810,26 @@
         <v>193</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="G194" s="10"/>
       <c r="H194" s="12" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="J194" s="10"/>
     </row>
@@ -9899,23 +9838,23 @@
         <v>194</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F195" s="13" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="G195" s="10"/>
       <c r="H195" s="12" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="I195" s="10"/>
       <c r="J195" s="10"/>
@@ -9925,28 +9864,28 @@
         <v>195</v>
       </c>
       <c r="B196" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D196" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C196" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="D196" s="9" t="s">
-        <v>349</v>
-      </c>
       <c r="E196" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="H196" s="12" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="J196" s="10"/>
     </row>
@@ -9955,23 +9894,23 @@
         <v>196</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="G197" s="10"/>
       <c r="H197" s="12" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="I197" s="10"/>
       <c r="J197" s="10"/>
@@ -9981,23 +9920,23 @@
         <v>197</v>
       </c>
       <c r="B198" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F198" s="13" t="s">
         <v>332</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="D198" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E198" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="F198" s="13" t="s">
-        <v>351</v>
       </c>
       <c r="G198" s="10"/>
       <c r="H198" s="12" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="I198" s="10"/>
       <c r="J198" s="10"/>
@@ -10007,23 +9946,23 @@
         <v>198</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="G199" s="10"/>
       <c r="H199" s="12" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="I199" s="10"/>
       <c r="J199" s="10"/>
@@ -10033,23 +9972,23 @@
         <v>199</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F200" s="13" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="G200" s="10"/>
       <c r="H200" s="12" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="I200" s="10"/>
       <c r="J200" s="10"/>
@@ -10059,26 +9998,26 @@
         <v>200</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F201" s="13" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="G201" s="10"/>
       <c r="H201" s="12" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="I201" s="12" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="J201" s="10"/>
     </row>
@@ -10099,7 +10038,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="121.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="117.57642857142856" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="74.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -11234,7 +11173,7 @@
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -11245,7 +11184,7 @@
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -11256,7 +11195,7 @@
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -11267,7 +11206,7 @@
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -11278,7 +11217,7 @@
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -11289,7 +11228,7 @@
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -11300,7 +11239,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -11311,7 +11250,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -11322,7 +11261,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
       <c r="A112" s="3">
         <v>110</v>
       </c>
@@ -11333,7 +11272,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
       <c r="A113" s="3">
         <v>111</v>
       </c>
@@ -11344,7 +11283,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
       <c r="A114" s="3">
         <v>112</v>
       </c>
@@ -11355,7 +11294,7 @@
         <v>170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
       <c r="A115" s="3">
         <v>113</v>
       </c>
@@ -11366,7 +11305,7 @@
         <v>170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
       <c r="A116" s="3">
         <v>114</v>
       </c>
@@ -11377,7 +11316,7 @@
         <v>173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
       <c r="A117" s="3">
         <v>115</v>
       </c>
@@ -11388,7 +11327,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
       <c r="A118" s="3">
         <v>116</v>
       </c>
@@ -11399,7 +11338,7 @@
         <v>177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
       <c r="A119" s="3">
         <v>117</v>
       </c>
@@ -11410,7 +11349,7 @@
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
       <c r="A120" s="3">
         <v>118</v>
       </c>
@@ -11418,7 +11357,7 @@
         <v>180</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
@@ -11426,10 +11365,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
@@ -11437,10 +11376,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
@@ -11448,10 +11387,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
@@ -11459,10 +11398,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
@@ -11470,10 +11409,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
@@ -11481,10 +11420,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
@@ -11492,10 +11431,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
@@ -11503,10 +11442,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
@@ -11514,10 +11453,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
@@ -11525,10 +11464,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
@@ -11536,10 +11475,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
@@ -11547,10 +11486,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
@@ -11558,10 +11497,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
@@ -11569,10 +11508,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
@@ -11580,10 +11519,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
@@ -11591,10 +11530,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
@@ -11602,10 +11541,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
@@ -11613,10 +11552,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
@@ -11624,10 +11563,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
@@ -11635,10 +11574,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
@@ -11646,10 +11585,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
@@ -11657,10 +11596,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
@@ -11668,10 +11607,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
@@ -11679,10 +11618,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
@@ -11690,10 +11629,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
@@ -11701,10 +11640,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
@@ -11712,10 +11651,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
@@ -11723,10 +11662,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
@@ -11734,10 +11673,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
@@ -11745,10 +11684,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
@@ -11756,10 +11695,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
@@ -11767,10 +11706,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
@@ -11778,10 +11717,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
@@ -11789,10 +11728,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
@@ -11800,10 +11739,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
@@ -11811,10 +11750,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
@@ -11822,10 +11761,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
@@ -11833,10 +11772,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
@@ -11844,10 +11783,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
@@ -11855,10 +11794,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
@@ -11866,10 +11805,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
@@ -11877,10 +11816,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
@@ -11888,10 +11827,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
@@ -11899,10 +11838,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
@@ -11910,10 +11849,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
@@ -11921,10 +11860,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
@@ -11932,10 +11871,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
@@ -11943,10 +11882,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
@@ -11954,10 +11893,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
@@ -11965,10 +11904,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
@@ -11976,10 +11915,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
@@ -11987,10 +11926,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
@@ -11998,10 +11937,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
@@ -12009,10 +11948,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
@@ -12020,10 +11959,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
@@ -12031,10 +11970,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
@@ -12042,10 +11981,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
@@ -12053,10 +11992,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
@@ -12064,10 +12003,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
@@ -12075,10 +12014,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
@@ -12086,10 +12025,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
@@ -12097,10 +12036,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
@@ -12108,10 +12047,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
@@ -12119,10 +12058,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
@@ -12130,10 +12069,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
@@ -12141,10 +12080,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
@@ -12152,10 +12091,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
@@ -12163,10 +12102,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
@@ -12174,10 +12113,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
@@ -12185,10 +12124,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
@@ -12196,10 +12135,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
@@ -12207,10 +12146,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
@@ -12218,10 +12157,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
@@ -12229,10 +12168,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
@@ -12240,10 +12179,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
@@ -12251,10 +12190,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
@@ -12262,10 +12201,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
@@ -12273,10 +12212,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
@@ -12284,10 +12223,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
@@ -12295,10 +12234,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
@@ -12306,10 +12245,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/Policy.xlsx
+++ b/Policy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="757">
   <si>
     <t>Prompt</t>
   </si>
@@ -831,124 +831,103 @@
 </t>
   </si>
   <si>
-    <t>[6, 10, 21, 0, 18]</t>
+    <t>[6, 1, 0]</t>
   </si>
   <si>
     <t xml:space="preserve">I rented a car while on a business trip in Scotland for 4 days. The total cost of renting a car is 150 pounds. On the third day, the car was lent to a colleague who was traveling together. I used this car for the other three days. How much can I claim in expenses?
 </t>
   </si>
   <si>
-    <t>[17, 12, 1, 0, 3]</t>
+    <t>[17, 12, 1, 0]</t>
   </si>
   <si>
     <t xml:space="preserve">When I was on a business trip in China, I took the subway back to the city from the airport. I am traveling with two family members. Each ticket costs 5 pounds. Can I claim reimbursement for this?
 </t>
   </si>
   <si>
-    <t>[18, 19, 8, 20, 44]</t>
+    <t>[0, 5, 1, 44]</t>
   </si>
   <si>
     <t xml:space="preserve">I drived from London to Watford to pick up someone due to school requirements. The journey covered a total of 80 kilometers. My car had a broken tire when I returned and it cost £ 80 to repair. How much can I claim in expenses?
 </t>
   </si>
   <si>
-    <t>[0, 44, 7, 22, 21]</t>
+    <t>[0, 44, 10, 11]</t>
   </si>
   <si>
     <t>I'm expecting to hold an academic meeting on GNEI premises at 12:30 p.m. and I am considering to provide lunch via GNEI's catering providers. Can the food bill of £350 be claimed for?</t>
   </si>
   <si>
-    <t>[32, 26, 0, 45, 16]</t>
+    <t>[32, 0, 45, 44]</t>
   </si>
   <si>
     <t>I held an academic meeting with my research partners on GNEI premises at 17:30 p.m. The meeting took longer than expected, so I invited the group to a restaurant after finishing the meeting. The late dinner costed £350. Can that be claimed for?</t>
   </si>
   <si>
-    <t>[32, 43, 0, 22, 1]</t>
+    <t>[32, 33, 0, 31, 44]</t>
   </si>
   <si>
     <t>I held an academic meeting with my research partners on GNEI premises at 17:30 p.m. The meeting took longer than expected, so I invited the group (6 of us, including 3 visitors) to a restaurant after finishing the meeting. The late dinner costed £350. Assuming the relevant authority only approved the activity as business entertaining and hold the expense limit as it is in relevant clauses, how much can I claim for?</t>
   </si>
   <si>
-    <t>[32, 0, 44, 35, 43]</t>
+    <t>[32, 0, 44, 35, 33]</t>
   </si>
   <si>
     <t>I held a staff social function, inviting all staff from my department with pre-approvment. The total bill of the day came out to be £360, given 15 of us attended. How much can I claim for with receipts?</t>
   </si>
   <si>
-    <t>[34, 44, 0, 1, 35]</t>
+    <t>[34, 44, 0]</t>
   </si>
   <si>
     <t>I held a staff social function, inviting several major staff with pre-approvment. The total bill of the day came out to be £150, given 6 of us attended. However, I couldnot invoice that directly to GNEI and can only proceed on individuals' expense claims. How much can I claim for with receipts?</t>
   </si>
   <si>
-    <t>[34, 44, 1, 0, 20]</t>
-  </si>
-  <si>
     <t>I held an academic meeting with my research partners on GNEI premises at 17:30 p.m. The meeting took longer than expected, so I invited the group (6 of us, including 3 visitors) to a restaurant after finishing the meeting. The late dinner costed £260, yet a form of all attendees can not be provided, since 3 visitors left and couldnot sign the form. how much can I claim for?</t>
   </si>
   <si>
-    <t>[32, 41, 31, 47, 44]</t>
+    <t>[35, 0, 44]</t>
   </si>
   <si>
     <t>I held an academic meeting with my research partners on GNEI premises at 17:30 p.m. The meeting took longer than expected, so I invited the group (6 of us, including 3 visitors) to a restaurant after finishing the meeting. The late dinner costed £260, yet a form of all attendees can not be provided, since 3 visitors left and couldnot sign the form. However the authority did give me pre-approval in case it's necessary. how much can I claim for?</t>
   </si>
   <si>
-    <t>[32, 41, 44, 31, 47]</t>
-  </si>
-  <si>
     <t>I held a business entertaining activity with my colleagues, yet due to we're at the same colleague level, 6 of us shared the bill of £240. How much can each of us claim for?</t>
   </si>
   <si>
-    <t>[44, 35, 22, 1, 43]</t>
+    <t>[44, 35, 0]</t>
   </si>
   <si>
     <t>I held a business entertaining activity with my colleagues, yet as required by our special guests, additional services has been applied and the total cost for 16 of us was £800. I haven't sumbit this to gain approval from my department budget holder yet. How much can I claim for?</t>
   </si>
   <si>
-    <t>[0, 35, 1, 33, 19]</t>
-  </si>
-  <si>
     <t>I held a business entertaining activity with my colleagues, yet as required by our special guests, additional services has been applied and the total cost for 16 of us was £800. However pre-approval has been given as long as the cost did not expand unacceptable. How much can I claim for?</t>
   </si>
   <si>
-    <t>[0, 35, 9, 1, 24]</t>
-  </si>
-  <si>
     <t>I held a business entertaining activity with my colleagues and research fellows, yet as required by our special guests, the attendee form has not been signed for confidentiality. The bill for 16 of us was £1000, however pre-approval from authority has been given as long as the cost did not expand unacceptable. How much can I claim for?</t>
   </si>
   <si>
-    <t>[0, 35, 41, 1, 9]</t>
-  </si>
-  <si>
     <t>I held a business entertaining activity with my colleagues and research fellows. The bill for 50 of us (including 4 GNEI students attended as a support role) was £2000. How much can I claim for?</t>
   </si>
   <si>
-    <t>[35, 31, 0, 28, 33]</t>
-  </si>
-  <si>
     <t>I held a business entertaining activity with my colleagues and research fellows. The bill for 50 of us (including 4 GNEI students attended as a support role) was £2100 (including £80 raised by support attendees). Without any guidance from relevant authority, can I claim for the whole amount, via one business entertainment claim and one business function claim?</t>
   </si>
   <si>
-    <t>[35, 0, 31, 28, 44]</t>
+    <t>[44, 35, 0, 34]</t>
   </si>
   <si>
     <t>I held a business entertaining activity with my colleagues and research fellows. The bill for 50 of us (including 4 GNEI students attended as a support role) was £2100. Without any guidance from relevant authority, how can I claim for the whole amount, according to the policy?</t>
   </si>
   <si>
-    <t>[35, 0, 28, 44, 1]</t>
-  </si>
-  <si>
     <t>I held a business entertaining activity with my colleagues and research fellows. The bill for 50 of us was £2000 and was paid via departmental purchasing cards. Can I claim for the whole amount?</t>
   </si>
   <si>
-    <t>[31, 35, 7, 0, 28]</t>
+    <t>[44, 35, 0, 31]</t>
   </si>
   <si>
     <t>I'm a staff of GNEI Campus in Manchester. I went on a work trip to the GNEI campus in London and booked a hotel for 6 nights, with a total cost of £ 120. During this period, I washed my clothes once and spent a total of £ 5. How much can I get reimbursed?</t>
   </si>
   <si>
-    <t>[0, 21, 1, 18, 46]</t>
+    <t>[0, 21, 23, 44]</t>
   </si>
   <si>
     <t>I'm a staff of GNEI Campus in London. I went on a work trip to the GNEI campus in Edinburgh and booked a hotel for 4 nights, with a total cost of £ 90. During this period, I washed my clothes twice and spent a total of £ 8. How much can I get reimbursed?</t>
@@ -957,70 +936,55 @@
     <t>I went to France to attend an international academic conference and stayed in the hotel for a total of 4 nights. The total room cost was £ 100, excluding food expenses. I spent a total of 140 pounds on meals within 4 days, with invoices for each meal. How much can I get reimbursed?</t>
   </si>
   <si>
-    <t>[26, 27, 25, 46, 0]</t>
+    <t>[26, 27, 22, 25, 0]</t>
   </si>
   <si>
     <t>I went to France to attend an international academic conference and stayed in the hotel for a total of 4 nights. The total room cost was £ 100, excluding food expenses. I spent a total of 50 pounds on breakfast every day, and I lost the invoice for two days. How much can I get reimbursed?</t>
   </si>
   <si>
-    <t>[46, 0, 26, 22, 1]</t>
-  </si>
-  <si>
     <t>I went on a work trip to China and booked an 8-day hotel. The total cost of the room was £ 200, which includes breakfast and lunch. During this period, I had lunch twice outside the hotel for a total cost of £ 30. How much can I get reimbursed?</t>
   </si>
   <si>
-    <t>[26, 21, 25, 0, 18]</t>
-  </si>
-  <si>
     <t>I went on a work trip to China and booked an 8-day hotel. The total cost of the room was £ 200, which includes breakfast and lunch. During this period, I had dinner twice outside the hotel for a total cost of £ 40. Receipts for dinner are not available. How much can I get reimbursed?</t>
   </si>
   <si>
+    <t>On behalf of the university, I went to GNEI University in Manchester to exchange and study for one day. I didn't have breakfast. The lunch cost 25 pounds, and the dinner cost 34 pounds. All the receipts are available. How much can I get reimbursed?</t>
+  </si>
+  <si>
+    <t>On behalf of the university, I went to GNEI University in Manchester to exchange and study for one day. The breakfast cost 6 pounds, the lunch cost 25 pounds, and the dinner cost 34 pounds. All the receipts are available. How much can I get reimbursed?</t>
+  </si>
+  <si>
+    <t>I went to Spain to attend an international academic conference and stayed in the hotel for a total of 5 nights. The total room cost was £ 130, excluding food expenses. I spent a total of 140 pounds on meals within 5 days, with invoices for each meal. How much can I get reimbursed?</t>
+  </si>
+  <si>
+    <t>I went on a work trip to China and booked an 8-day hotel. The total cost of the room was £ 180, which includes breakfast and lunch. During this period, I had dinner twice outside the hotel for a total cost of £ 35. Receipts for dinner are not available. How much can I get reimbursed?</t>
+  </si>
+  <si>
+    <t>I went on a work trip to China and booked an 8-day hotel. The total cost of the room was £ 180, which includes breakfast and lunch. During this period, I had dinner twice outside the hotel for a total cost of £ 35. Receipts for dinner are available. How much can I get reimbursed?</t>
+  </si>
+  <si>
     <t>[26, 21, 20, 25, 0]</t>
   </si>
   <si>
-    <t>On behalf of the university, I went to GNEI University in Manchester to exchange and study for one day. I didn't have breakfast. The lunch cost 25 pounds, and the dinner cost 34 pounds. All the receipts are available. How much can I get reimbursed?</t>
-  </si>
-  <si>
-    <t>[26, 44, 25, 0, 22]</t>
-  </si>
-  <si>
-    <t>On behalf of the university, I went to GNEI University in Manchester to exchange and study for one day. The breakfast cost 6 pounds, the lunch cost 25 pounds, and the dinner cost 34 pounds. All the receipts are available. How much can I get reimbursed?</t>
-  </si>
-  <si>
-    <t>[26, 44, 25, 22, 0]</t>
-  </si>
-  <si>
-    <t>I went to Spain to attend an international academic conference and stayed in the hotel for a total of 5 nights. The total room cost was £ 130, excluding food expenses. I spent a total of 140 pounds on meals within 5 days, with invoices for each meal. How much can I get reimbursed?</t>
-  </si>
-  <si>
-    <t>I went on a work trip to China and booked an 8-day hotel. The total cost of the room was £ 180, which includes breakfast and lunch. During this period, I had dinner twice outside the hotel for a total cost of £ 35. Receipts for dinner are not available. How much can I get reimbursed?</t>
-  </si>
-  <si>
-    <t>I went on a work trip to China and booked an 8-day hotel. The total cost of the room was £ 180, which includes breakfast and lunch. During this period, I had dinner twice outside the hotel for a total cost of £ 35. Receipts for dinner are available. How much can I get reimbursed?</t>
-  </si>
-  <si>
     <t>I went on a work trip to Germany and booked an 6-day hotel. The total cost of the room was £180. However, the receipt is missing. How much can I get reimbursed?</t>
   </si>
   <si>
-    <t>[21, 18, 26, 16, 22]</t>
+    <t>[21, 0, 44, 22]</t>
   </si>
   <si>
     <t>I was sent to work at GNEI College in Washington, USA for a long-term period of one year. I rented a house for one year, with a rent of 5500 pounds. This leasing behavior has been approved by the budget holder</t>
   </si>
   <si>
-    <t>[28, 0, 19, 1, 25]</t>
-  </si>
-  <si>
     <t>I'm a staff of GNEI Campus in Manchester. I went on a work trip to the GNEI campus in London and booked a hotel for 6 nights, with a total cost of £ 200. During this period, I washed my clothes twice and spent a total of £ 10. All the receipts are provided. How much can I get reimbursed?</t>
   </si>
   <si>
-    <t>[0, 1, 44, 21, 18]</t>
+    <t>[0, 23, 44, 21]</t>
   </si>
   <si>
     <t>I travelled to Scotland for a work trip for 2 nights. The hotel I booked doesn't include meals. On the first day, I spent £20 on lunch and £25 on dinner. On the second day, I spent £5 on breakfast, £10 on lunch, and £40 on dinner. All the receipts are provided. How much can I claim in expenses?</t>
   </si>
   <si>
-    <t>[26, 25, 44, 27, 0]</t>
+    <t>[26, 25, 44, 0]</t>
   </si>
   <si>
     <t>ID</t>
@@ -4319,252 +4283,252 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A1" s="20" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A2" s="20" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A3" s="20" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A4" s="20" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A5" s="20" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A6" s="20" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="150" customFormat="1" s="7">
       <c r="A7" s="20" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="68.25" customFormat="1" s="7">
       <c r="A8" s="20" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A9" s="20" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A10" s="20" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A11" s="20" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="94.5" customFormat="1" s="7">
       <c r="A12" s="20" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A13" s="20" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A14" s="20" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A15" s="20" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39" customFormat="1" s="7">
       <c r="A16" s="20" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A17" s="20" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A18" s="20" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A19" s="20" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A20" s="20" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A21" s="20" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A22" s="20" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A23" s="20" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A24" s="20" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A25" s="20" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A26" s="20" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A27" s="20" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A28" s="20" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A29" s="20" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A30" s="20" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A31" s="20" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A32" s="20" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A33" s="20" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A34" s="20" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A35" s="20" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A36" s="20" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A37" s="20" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A38" s="20" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A39" s="20" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A40" s="20" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="67.5" customFormat="1" s="7">
       <c r="A41" s="20" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A42" s="20" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A43" s="20" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A44" s="20" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A45" s="20" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A46" s="20" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A47" s="20" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A48" s="20" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A49" s="20" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A50" s="20" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -4597,31 +4561,31 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="40.5" customFormat="1" s="7">
       <c r="A1" s="8" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="J1" s="10"/>
     </row>
@@ -4633,25 +4597,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="J2" s="10"/>
     </row>
@@ -4663,25 +4627,25 @@
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>329</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>341</v>
       </c>
       <c r="J3" s="10"/>
     </row>
@@ -4693,23 +4657,23 @@
         <v>6</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="12" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="J4" s="10"/>
     </row>
@@ -4721,23 +4685,23 @@
         <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="12" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="J5" s="10"/>
     </row>
@@ -4749,23 +4713,23 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>348</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="12" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="J6" s="10"/>
     </row>
@@ -4777,25 +4741,25 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="J7" s="10"/>
     </row>
@@ -4807,25 +4771,25 @@
         <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="J8" s="10"/>
     </row>
@@ -4837,23 +4801,23 @@
         <v>15</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="12" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="J9" s="10"/>
     </row>
@@ -4865,23 +4829,23 @@
         <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="12" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="J10" s="10"/>
     </row>
@@ -4893,23 +4857,23 @@
         <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="12" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="J11" s="10"/>
     </row>
@@ -4921,21 +4885,21 @@
         <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="12" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="J12" s="10"/>
     </row>
@@ -4947,23 +4911,23 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="12" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="J13" s="10"/>
     </row>
@@ -4975,21 +4939,21 @@
         <v>25</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="12" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="J14" s="10"/>
     </row>
@@ -5001,23 +4965,23 @@
         <v>27</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="12" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="J15" s="10"/>
     </row>
@@ -5029,23 +4993,23 @@
         <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="12" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="J16" s="10"/>
     </row>
@@ -5057,23 +5021,23 @@
         <v>31</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="12" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="J17" s="10"/>
     </row>
@@ -5085,23 +5049,23 @@
         <v>32</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="12" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J18" s="10"/>
     </row>
@@ -5113,23 +5077,23 @@
         <v>34</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="12" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="J19" s="10"/>
     </row>
@@ -5141,23 +5105,23 @@
         <v>35</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="12" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="J20" s="10"/>
     </row>
@@ -5169,23 +5133,23 @@
         <v>37</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="12" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="J21" s="10"/>
     </row>
@@ -5197,23 +5161,23 @@
         <v>39</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="12" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="J22" s="10"/>
     </row>
@@ -5225,23 +5189,23 @@
         <v>41</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="12" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="J23" s="10"/>
     </row>
@@ -5253,23 +5217,23 @@
         <v>43</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="12" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="J24" s="10"/>
     </row>
@@ -5281,23 +5245,23 @@
         <v>44</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="12" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="J25" s="10"/>
     </row>
@@ -5309,23 +5273,23 @@
         <v>45</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="12" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J26" s="10"/>
     </row>
@@ -5337,23 +5301,23 @@
         <v>46</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="12" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="J27" s="10"/>
     </row>
@@ -5365,23 +5329,23 @@
         <v>48</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="12" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="J28" s="10"/>
     </row>
@@ -5393,23 +5357,23 @@
         <v>49</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="12" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="J29" s="10"/>
     </row>
@@ -5421,23 +5385,23 @@
         <v>50</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="12" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="J30" s="10"/>
     </row>
@@ -5449,23 +5413,23 @@
         <v>52</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="12" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="J31" s="10"/>
     </row>
@@ -5477,23 +5441,23 @@
         <v>54</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>348</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="12" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="J32" s="10"/>
     </row>
@@ -5505,23 +5469,23 @@
         <v>55</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="12" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="J33" s="10"/>
     </row>
@@ -5533,23 +5497,23 @@
         <v>56</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="12" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="J34" s="10"/>
     </row>
@@ -5561,23 +5525,23 @@
         <v>57</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="15" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="J35" s="10"/>
     </row>
@@ -5589,23 +5553,23 @@
         <v>58</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="12" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="J36" s="10"/>
     </row>
@@ -5617,23 +5581,23 @@
         <v>59</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="15" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="J37" s="10"/>
     </row>
@@ -5645,23 +5609,23 @@
         <v>60</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="12" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="J38" s="10"/>
     </row>
@@ -5673,23 +5637,23 @@
         <v>62</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="12" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="J39" s="10"/>
     </row>
@@ -5701,23 +5665,23 @@
         <v>64</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="12" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="J40" s="10"/>
     </row>
@@ -5729,23 +5693,23 @@
         <v>65</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="15" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="J41" s="10"/>
     </row>
@@ -5757,23 +5721,23 @@
         <v>66</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="12" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J42" s="10"/>
     </row>
@@ -5785,23 +5749,23 @@
         <v>68</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="12" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="J43" s="10"/>
     </row>
@@ -5813,23 +5777,23 @@
         <v>69</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="12" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="J44" s="10"/>
     </row>
@@ -5841,23 +5805,23 @@
         <v>70</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="12" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="J45" s="10"/>
     </row>
@@ -5869,23 +5833,23 @@
         <v>71</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="12" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="J46" s="10"/>
     </row>
@@ -5897,23 +5861,23 @@
         <v>73</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="12" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="J47" s="10"/>
     </row>
@@ -5925,23 +5889,23 @@
         <v>75</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="12" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="J48" s="10"/>
     </row>
@@ -5953,23 +5917,23 @@
         <v>77</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="12" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="J49" s="10"/>
     </row>
@@ -5981,23 +5945,23 @@
         <v>78</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="12" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="J50" s="10"/>
     </row>
@@ -6009,21 +5973,21 @@
         <v>79</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D51" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>348</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="12" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="J51" s="10"/>
     </row>
@@ -6035,22 +5999,22 @@
         <v>81</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -6063,20 +6027,20 @@
         <v>83</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="12" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -6089,20 +6053,20 @@
         <v>85</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="12" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -6115,20 +6079,20 @@
         <v>87</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="12" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -6141,20 +6105,20 @@
         <v>89</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="12" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -6167,23 +6131,23 @@
         <v>91</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="12" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="J57" s="10"/>
     </row>
@@ -6195,23 +6159,23 @@
         <v>92</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="12" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="J58" s="10"/>
     </row>
@@ -6223,20 +6187,20 @@
         <v>93</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="12" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -6249,23 +6213,23 @@
         <v>95</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="12" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="J60" s="10"/>
     </row>
@@ -6277,23 +6241,23 @@
         <v>96</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="12" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="J61" s="10"/>
     </row>
@@ -6305,20 +6269,20 @@
         <v>98</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="12" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
@@ -6331,20 +6295,20 @@
         <v>99</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="12" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -6357,20 +6321,20 @@
         <v>100</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="12" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
@@ -6383,20 +6347,20 @@
         <v>102</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G65" s="10"/>
       <c r="H65" s="12" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
@@ -6409,20 +6373,20 @@
         <v>103</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="12" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
@@ -6435,20 +6399,20 @@
         <v>105</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="12" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
@@ -6461,23 +6425,23 @@
         <v>107</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="12" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="J68" s="10"/>
     </row>
@@ -6489,20 +6453,20 @@
         <v>109</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="12" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
@@ -6515,20 +6479,20 @@
         <v>110</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="12" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
@@ -6541,23 +6505,23 @@
         <v>112</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="12" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="J71" s="10"/>
     </row>
@@ -6569,20 +6533,20 @@
         <v>113</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="12" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
@@ -6595,20 +6559,20 @@
         <v>114</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="12" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
@@ -6621,20 +6585,20 @@
         <v>116</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="12" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
@@ -6647,20 +6611,20 @@
         <v>117</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="12" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
@@ -6673,20 +6637,20 @@
         <v>119</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="12" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
@@ -6699,16 +6663,16 @@
         <v>121</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -6723,16 +6687,16 @@
         <v>123</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
@@ -6747,16 +6711,16 @@
         <v>124</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -6771,16 +6735,16 @@
         <v>125</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -6795,16 +6759,16 @@
         <v>126</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
@@ -6819,16 +6783,16 @@
         <v>127</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
@@ -6843,16 +6807,16 @@
         <v>128</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
@@ -6867,16 +6831,16 @@
         <v>129</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
@@ -6891,16 +6855,16 @@
         <v>130</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
@@ -6915,16 +6879,16 @@
         <v>131</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
@@ -6939,16 +6903,16 @@
         <v>132</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
@@ -6963,16 +6927,16 @@
         <v>134</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
@@ -6987,16 +6951,16 @@
         <v>135</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
@@ -7011,16 +6975,16 @@
         <v>137</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
@@ -7035,16 +6999,16 @@
         <v>138</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
@@ -7059,16 +7023,16 @@
         <v>140</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
@@ -7083,16 +7047,16 @@
         <v>141</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
@@ -7107,16 +7071,16 @@
         <v>143</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
@@ -7131,16 +7095,16 @@
         <v>144</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
@@ -7155,16 +7119,16 @@
         <v>146</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -7179,20 +7143,20 @@
         <v>147</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="12" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
@@ -7205,20 +7169,20 @@
         <v>149</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="12" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
@@ -7231,20 +7195,20 @@
         <v>150</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="12" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
@@ -7257,20 +7221,20 @@
         <v>152</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="12" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
@@ -7283,20 +7247,20 @@
         <v>153</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G101" s="10"/>
       <c r="H101" s="12" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -7309,23 +7273,23 @@
         <v>154</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="12" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="J102" s="10"/>
     </row>
@@ -7337,20 +7301,20 @@
         <v>155</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="G103" s="10"/>
       <c r="H103" s="12" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
@@ -7363,20 +7327,20 @@
         <v>156</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="12" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
@@ -7389,20 +7353,20 @@
         <v>157</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="12" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
@@ -7415,20 +7379,20 @@
         <v>158</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G106" s="10"/>
       <c r="H106" s="12" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
@@ -7441,22 +7405,22 @@
         <v>159</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
@@ -7469,22 +7433,22 @@
         <v>161</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
@@ -7497,22 +7461,22 @@
         <v>162</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
@@ -7525,22 +7489,22 @@
         <v>164</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
@@ -7553,26 +7517,26 @@
         <v>165</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="10" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="7">
@@ -7583,25 +7547,25 @@
         <v>166</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="I112" s="12" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="J112" s="10"/>
     </row>
@@ -7613,20 +7577,20 @@
         <v>168</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="12" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
@@ -7639,20 +7603,20 @@
         <v>169</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="12" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
@@ -7665,20 +7629,20 @@
         <v>171</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="12" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
@@ -7691,22 +7655,22 @@
         <v>172</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
@@ -7719,23 +7683,23 @@
         <v>174</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G117" s="10"/>
       <c r="H117" s="12" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="I117" s="12" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="J117" s="10"/>
     </row>
@@ -7747,20 +7711,20 @@
         <v>176</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="12" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
@@ -7773,23 +7737,23 @@
         <v>178</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G119" s="10"/>
       <c r="H119" s="12" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="I119" s="12" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="J119" s="10"/>
     </row>
@@ -7801,23 +7765,23 @@
         <v>180</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G120" s="10"/>
       <c r="H120" s="12" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="I120" s="12" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="J120" s="10"/>
     </row>
@@ -7829,23 +7793,23 @@
         <v>181</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G121" s="10"/>
       <c r="H121" s="12" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="J121" s="10"/>
     </row>
@@ -7857,25 +7821,25 @@
         <v>182</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I122" s="12" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="J122" s="10"/>
     </row>
@@ -7887,23 +7851,23 @@
         <v>184</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G123" s="10"/>
       <c r="H123" s="10" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I123" s="12" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="J123" s="10"/>
     </row>
@@ -7915,23 +7879,23 @@
         <v>185</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="12" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="I124" s="12" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="J124" s="10"/>
     </row>
@@ -7943,22 +7907,22 @@
         <v>187</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
@@ -7971,23 +7935,23 @@
         <v>189</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="12" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="J126" s="10"/>
     </row>
@@ -7999,20 +7963,20 @@
         <v>190</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G127" s="10"/>
       <c r="H127" s="12" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
@@ -8025,22 +7989,22 @@
         <v>191</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
@@ -8053,23 +8017,23 @@
         <v>193</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G129" s="10"/>
       <c r="H129" s="12" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I129" s="12" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="J129" s="10"/>
     </row>
@@ -8081,25 +8045,25 @@
         <v>195</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="I130" s="12" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="J130" s="10"/>
     </row>
@@ -8111,23 +8075,23 @@
         <v>197</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G131" s="10"/>
       <c r="H131" s="12" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="I131" s="12" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="J131" s="10"/>
     </row>
@@ -8139,20 +8103,20 @@
         <v>198</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="G132" s="10"/>
       <c r="H132" s="12" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
@@ -8165,20 +8129,20 @@
         <v>200</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="12" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
@@ -8191,20 +8155,20 @@
         <v>201</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G134" s="10"/>
       <c r="H134" s="12" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="I134" s="10"/>
       <c r="J134" s="10"/>
@@ -8217,23 +8181,23 @@
         <v>203</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G135" s="10"/>
       <c r="H135" s="12" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="I135" s="12" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="J135" s="10"/>
     </row>
@@ -8245,20 +8209,20 @@
         <v>204</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G136" s="10"/>
       <c r="H136" s="12" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
@@ -8271,23 +8235,23 @@
         <v>205</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G137" s="10"/>
       <c r="H137" s="12" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="J137" s="10"/>
     </row>
@@ -8299,20 +8263,20 @@
         <v>207</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G138" s="10"/>
       <c r="H138" s="12" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
@@ -8325,23 +8289,23 @@
         <v>209</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G139" s="10"/>
       <c r="H139" s="12" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="I139" s="12" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="J139" s="10"/>
     </row>
@@ -8353,23 +8317,23 @@
         <v>211</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G140" s="10"/>
       <c r="H140" s="12" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="I140" s="12" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="J140" s="10"/>
     </row>
@@ -8381,20 +8345,20 @@
         <v>213</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G141" s="10"/>
       <c r="H141" s="12" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
@@ -8407,23 +8371,23 @@
         <v>215</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G142" s="10"/>
       <c r="H142" s="12" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="J142" s="10"/>
     </row>
@@ -8435,22 +8399,22 @@
         <v>216</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
@@ -8463,25 +8427,25 @@
         <v>218</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="J144" s="10"/>
     </row>
@@ -8493,22 +8457,22 @@
         <v>220</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
@@ -8521,23 +8485,23 @@
         <v>222</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G146" s="10"/>
       <c r="H146" s="12" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="J146" s="10"/>
     </row>
@@ -8549,23 +8513,23 @@
         <v>223</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G147" s="10"/>
       <c r="H147" s="12" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="J147" s="10"/>
     </row>
@@ -8577,20 +8541,20 @@
         <v>225</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G148" s="10"/>
       <c r="H148" s="12" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="I148" s="10"/>
       <c r="J148" s="10"/>
@@ -8603,23 +8567,23 @@
         <v>226</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="G149" s="10"/>
       <c r="H149" s="12" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="J149" s="10"/>
     </row>
@@ -8631,20 +8595,20 @@
         <v>227</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="G150" s="10"/>
       <c r="H150" s="12" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
@@ -8657,20 +8621,20 @@
         <v>229</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G151" s="10"/>
       <c r="H151" s="12" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
@@ -8683,23 +8647,23 @@
         <v>231</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G152" s="10"/>
       <c r="H152" s="12" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="J152" s="10"/>
     </row>
@@ -8711,22 +8675,22 @@
         <v>232</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
@@ -8739,23 +8703,23 @@
         <v>234</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G154" s="10"/>
       <c r="H154" s="12" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="J154" s="10"/>
     </row>
@@ -8767,23 +8731,23 @@
         <v>235</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G155" s="10"/>
       <c r="H155" s="12" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="J155" s="10"/>
     </row>
@@ -8795,23 +8759,23 @@
         <v>237</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G156" s="10"/>
       <c r="H156" s="12" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="J156" s="10"/>
     </row>
@@ -8823,20 +8787,20 @@
         <v>238</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G157" s="10"/>
       <c r="H157" s="12" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
@@ -8849,20 +8813,20 @@
         <v>240</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G158" s="10"/>
       <c r="H158" s="12" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
@@ -8875,23 +8839,23 @@
         <v>241</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G159" s="10"/>
       <c r="H159" s="12" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="J159" s="10"/>
     </row>
@@ -8903,23 +8867,23 @@
         <v>242</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="12" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="J160" s="10"/>
     </row>
@@ -8931,23 +8895,23 @@
         <v>244</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G161" s="10"/>
       <c r="H161" s="12" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J161" s="10"/>
     </row>
@@ -8959,20 +8923,20 @@
         <v>245</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G162" s="10"/>
       <c r="H162" s="12" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="I162" s="10"/>
       <c r="J162" s="10"/>
@@ -8985,20 +8949,20 @@
         <v>247</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G163" s="10"/>
       <c r="H163" s="12" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="I163" s="10"/>
       <c r="J163" s="10"/>
@@ -9011,20 +8975,20 @@
         <v>249</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="G164" s="10"/>
       <c r="H164" s="12" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
@@ -9037,20 +9001,20 @@
         <v>251</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D165" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F165" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F165" s="13" t="s">
-        <v>348</v>
       </c>
       <c r="G165" s="10"/>
       <c r="H165" s="12" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="I165" s="10"/>
       <c r="J165" s="10"/>
@@ -9063,20 +9027,20 @@
         <v>253</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G166" s="10"/>
       <c r="H166" s="12" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="I166" s="10"/>
       <c r="J166" s="10"/>
@@ -9089,20 +9053,20 @@
         <v>255</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G167" s="10"/>
       <c r="H167" s="12" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="I167" s="10"/>
       <c r="J167" s="10"/>
@@ -9115,20 +9079,20 @@
         <v>257</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="G168" s="10"/>
       <c r="H168" s="12" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="I168" s="10"/>
       <c r="J168" s="10"/>
@@ -9141,20 +9105,20 @@
         <v>259</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G169" s="10"/>
       <c r="H169" s="12" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="I169" s="10"/>
       <c r="J169" s="10"/>
@@ -9167,20 +9131,20 @@
         <v>261</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G170" s="10"/>
       <c r="H170" s="12" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="I170" s="10"/>
       <c r="J170" s="10"/>
@@ -9193,20 +9157,20 @@
         <v>263</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F171" s="13" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G171" s="10"/>
       <c r="H171" s="12" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="I171" s="10"/>
       <c r="J171" s="10"/>
@@ -9219,25 +9183,25 @@
         <v>265</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="H172" s="12" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="J172" s="10"/>
     </row>
@@ -9249,20 +9213,20 @@
         <v>267</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G173" s="10"/>
       <c r="H173" s="12" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="I173" s="10"/>
       <c r="J173" s="10"/>
@@ -9275,20 +9239,20 @@
         <v>269</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="G174" s="10"/>
       <c r="H174" s="12" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="I174" s="10"/>
       <c r="J174" s="10"/>
@@ -9301,20 +9265,20 @@
         <v>271</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="G175" s="10"/>
       <c r="H175" s="12" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="I175" s="10"/>
       <c r="J175" s="10"/>
@@ -9327,23 +9291,23 @@
         <v>273</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="G176" s="10"/>
       <c r="H176" s="12" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="I176" s="12" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="J176" s="10"/>
     </row>
@@ -9352,23 +9316,23 @@
         <v>176</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F177" s="13" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="G177" s="10"/>
       <c r="H177" s="12" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="I177" s="10"/>
       <c r="J177" s="10"/>
@@ -9378,26 +9342,26 @@
         <v>177</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="G178" s="10"/>
       <c r="H178" s="12" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="J178" s="10"/>
     </row>
@@ -9406,26 +9370,26 @@
         <v>178</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G179" s="10"/>
       <c r="H179" s="12" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="I179" s="12" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="J179" s="10"/>
     </row>
@@ -9434,23 +9398,23 @@
         <v>179</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="G180" s="10"/>
       <c r="H180" s="12" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="I180" s="10"/>
       <c r="J180" s="10"/>
@@ -9460,23 +9424,23 @@
         <v>180</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F181" s="13" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G181" s="10"/>
       <c r="H181" s="12" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="I181" s="10"/>
       <c r="J181" s="10"/>
@@ -9486,26 +9450,26 @@
         <v>181</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G182" s="10"/>
       <c r="H182" s="12" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="I182" s="12" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="J182" s="10"/>
     </row>
@@ -9514,26 +9478,26 @@
         <v>182</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G183" s="10"/>
       <c r="H183" s="12" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="J183" s="10"/>
     </row>
@@ -9542,26 +9506,26 @@
         <v>183</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="G184" s="10"/>
       <c r="H184" s="12" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="I184" s="12" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="J184" s="10"/>
     </row>
@@ -9570,26 +9534,26 @@
         <v>184</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G185" s="10"/>
       <c r="H185" s="12" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="I185" s="12" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="J185" s="10"/>
     </row>
@@ -9598,25 +9562,25 @@
         <v>185</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="H186" s="12" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="I186" s="10"/>
       <c r="J186" s="10"/>
@@ -9626,23 +9590,23 @@
         <v>186</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G187" s="10"/>
       <c r="H187" s="12" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="I187" s="10"/>
       <c r="J187" s="10"/>
@@ -9652,23 +9616,23 @@
         <v>187</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="G188" s="10"/>
       <c r="H188" s="12" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
@@ -9678,23 +9642,23 @@
         <v>188</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="G189" s="10"/>
       <c r="H189" s="12" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="I189" s="10"/>
       <c r="J189" s="10"/>
@@ -9704,23 +9668,23 @@
         <v>189</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="G190" s="10"/>
       <c r="H190" s="12" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="I190" s="10"/>
       <c r="J190" s="10"/>
@@ -9730,25 +9694,25 @@
         <v>190</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F191" s="13" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G191" s="12" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="H191" s="12" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="I191" s="10"/>
       <c r="J191" s="10"/>
@@ -9758,23 +9722,23 @@
         <v>191</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="G192" s="10"/>
       <c r="H192" s="12" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="I192" s="10"/>
       <c r="J192" s="10"/>
@@ -9784,23 +9748,23 @@
         <v>192</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="G193" s="10"/>
       <c r="H193" s="12" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
@@ -9810,26 +9774,26 @@
         <v>193</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="G194" s="10"/>
       <c r="H194" s="12" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="J194" s="10"/>
     </row>
@@ -9838,23 +9802,23 @@
         <v>194</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F195" s="13" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G195" s="10"/>
       <c r="H195" s="12" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="I195" s="10"/>
       <c r="J195" s="10"/>
@@ -9864,28 +9828,28 @@
         <v>195</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="H196" s="12" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="J196" s="10"/>
     </row>
@@ -9894,23 +9858,23 @@
         <v>196</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="G197" s="10"/>
       <c r="H197" s="12" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="I197" s="10"/>
       <c r="J197" s="10"/>
@@ -9920,23 +9884,23 @@
         <v>197</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G198" s="10"/>
       <c r="H198" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="I198" s="10"/>
       <c r="J198" s="10"/>
@@ -9946,23 +9910,23 @@
         <v>198</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="G199" s="10"/>
       <c r="H199" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="I199" s="10"/>
       <c r="J199" s="10"/>
@@ -9972,23 +9936,23 @@
         <v>199</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F200" s="13" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="G200" s="10"/>
       <c r="H200" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="I200" s="10"/>
       <c r="J200" s="10"/>
@@ -9998,26 +9962,26 @@
         <v>200</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F201" s="13" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="G201" s="10"/>
       <c r="H201" s="12" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="I201" s="12" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="J201" s="10"/>
     </row>
@@ -11756,7 +11720,7 @@
         <v>236</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -11767,7 +11731,7 @@
         <v>239</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -11778,7 +11742,7 @@
         <v>239</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -11789,7 +11753,7 @@
         <v>239</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -11800,7 +11764,7 @@
         <v>243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -11811,7 +11775,7 @@
         <v>243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -11822,7 +11786,7 @@
         <v>246</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -11833,7 +11797,7 @@
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
       <c r="A164" s="3">
         <v>162</v>
       </c>
@@ -11844,7 +11808,7 @@
         <v>250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="31.5">
       <c r="A165" s="3">
         <v>163</v>
       </c>
@@ -11855,7 +11819,7 @@
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="31.5">
       <c r="A166" s="3">
         <v>164</v>
       </c>
@@ -11866,7 +11830,7 @@
         <v>254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
       <c r="A167" s="3">
         <v>165</v>
       </c>
@@ -11877,7 +11841,7 @@
         <v>256</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
       <c r="A168" s="3">
         <v>166</v>
       </c>
@@ -11888,7 +11852,7 @@
         <v>258</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
       <c r="A169" s="3">
         <v>167</v>
       </c>
@@ -11899,7 +11863,7 @@
         <v>260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
       <c r="A170" s="3">
         <v>168</v>
       </c>
@@ -11910,7 +11874,7 @@
         <v>262</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -11921,7 +11885,7 @@
         <v>264</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
       <c r="A172" s="3">
         <v>170</v>
       </c>
@@ -11932,7 +11896,7 @@
         <v>266</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
       <c r="A173" s="3">
         <v>171</v>
       </c>
@@ -11973,7 +11937,7 @@
         <v>273</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
@@ -11981,10 +11945,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
@@ -11992,10 +11956,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
@@ -12003,10 +11967,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
@@ -12014,10 +11978,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
@@ -12025,10 +11989,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
@@ -12036,10 +12000,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
@@ -12047,10 +12011,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
@@ -12058,10 +12022,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
@@ -12069,10 +12033,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
@@ -12080,10 +12044,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
@@ -12091,10 +12055,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
@@ -12102,10 +12066,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
@@ -12113,10 +12077,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
@@ -12124,10 +12088,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
@@ -12135,10 +12099,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
@@ -12146,10 +12110,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
@@ -12157,10 +12121,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>307</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
@@ -12168,10 +12132,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>309</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
@@ -12179,10 +12143,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
@@ -12190,10 +12154,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
@@ -12201,10 +12165,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
@@ -12212,10 +12176,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
@@ -12223,10 +12187,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>316</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
@@ -12234,10 +12198,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
@@ -12245,10 +12209,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/Policy.xlsx
+++ b/Policy.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Policy"/>
     <sheet r:id="rId2" sheetId="2" name="Test Data"/>
-    <sheet r:id="rId3" sheetId="3" name="Updatedprompts"/>
+    <sheet r:id="rId3" sheetId="3" name="eval_data"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
